--- a/config_debug/jing_yu_kuai_pao_server.xlsx
+++ b/config_debug/jing_yu_kuai_pao_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="12" r:id="rId1"/>
@@ -606,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -708,10 +708,10 @@
         <v>100</v>
       </c>
       <c r="H2">
+        <v>50000000</v>
+      </c>
+      <c r="I2">
         <v>10000000</v>
-      </c>
-      <c r="I2">
-        <v>2500000</v>
       </c>
       <c r="J2">
         <v>7</v>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
